--- a/biology/Zoologie/Euplanaria/Euplanaria.xlsx
+++ b/biology/Zoologie/Euplanaria/Euplanaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euplanaria est un genre de vers plats d'eau douce de la famille des Dugesiidae. Le genre est invalide et remplacé par Dugesia, mais il possède cependant 18 espèces non reclassées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euplanaria est un genre de vers plats d'eau douce de la famille des Dugesiidae. Le genre est invalide et remplacé par Dugesia, mais il possède cependant 18 espèces non reclassées.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,13 +551,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Euplanaria a été créé en 1897 par le zoologiste et professeur d'université allemand Richard Hesse (d) (1868-1944)[1],[2].
-Synonyme
-Euplanaria Hesse, 1897 est un synonyme de Dugesia Girard, 1850[1].
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (13 janvier 2024)[1], le genre Dugesia contient les espèces non reclassées suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Euplanaria a été créé en 1897 par le zoologiste et professeur d'université allemand Richard Hesse (d) (1868-1944),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euplanaria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euplanaria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euplanaria Hesse, 1897 est un synonyme de Dugesia Girard, 1850.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euplanaria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euplanaria</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (13 janvier 2024), le genre Dugesia contient les espèces non reclassées suivantes :
 Euplanaria agilis (Stringer, 1909)
 Euplanaria andamanensis (Kaburaki, 1925)
 Euplanaria aurita (Kennel, 1888)
@@ -562,8 +648,43 @@
 Euplanaria schauinslandi (Neppi, 1904)
 Euplanaria seclusa de Beauchamp, 1940
 Euplanaria wytegrensis (Sabussow, 1907)
-Synonymes, reclassements
-D'après World Register of Marine Species                               (13 janvier 2024)[1], les noms d'espèces suivants sont des synonymes. Sauf mention contraire, les genres des espèces reclassées appartiennent à la famille des Dugesiidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euplanaria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euplanaria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (13 janvier 2024), les noms d'espèces suivants sont des synonymes. Sauf mention contraire, les genres des espèces reclassées appartiennent à la famille des Dugesiidae.
 l'espèce Euplanaria absoloni (Komarek, 1919) est Dugesia absoloni (Komarek, 1919)
 l'espèce Euplanaria anceps Kenk, 1930 est Girardia anceps (Kenk, 1930)
 l'espèce Euplanaria andina (Borelli, 1895) est Girardia andina (Borelli, 1895)
@@ -588,9 +709,43 @@
 l'espèce Euplanaria taurocaucasica Livanov, 1951 est la sous-espèce Dugesia gonocephala taurocaucasica (Livanov, 1951)
 l'espèce Euplanaria tigrina (Girard, 1850) est Girardia tigrina (Girard, 1850)
 l'espèce Euplanaria torva (Müller OF, 1773) est reclassée dans la famille des Planariidae sous le nom Planaria torva (Müller OF, 1773)
-l'espèce Euplanaria transcaucasica Livanov, 1951 est la sous-espèce Dugesia gonocephala transcaucasica (Livanov, 1951)
-Publication originale
-(de) Richard Hesse, « Untersuchungen über die Organe der Lichtempfindung bei niederen Thieren. II. Die Augen der Plathelminthen, insonderheit der tricladen Turbellarien », Zeitschrift für wissenschaftliche Zoologie, vol. 62, no 4,‎ 11 mai 1897 (ISSN 0044-3778, OCLC 50371254, lire en ligne)
+l'espèce Euplanaria transcaucasica Livanov, 1951 est la sous-espèce Dugesia gonocephala transcaucasica (Livanov, 1951)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euplanaria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euplanaria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(de) Richard Hesse, « Untersuchungen über die Organe der Lichtempfindung bei niederen Thieren. II. Die Augen der Plathelminthen, insonderheit der tricladen Turbellarien », Zeitschrift für wissenschaftliche Zoologie, vol. 62, no 4,‎ 11 mai 1897 (ISSN 0044-3778, OCLC 50371254, lire en ligne)
 </t>
         </is>
       </c>
